--- a/Plan/Data_ADL.xlsx
+++ b/Plan/Data_ADL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="78">
   <si>
     <t>ADL001</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>8:40-15:10</t>
+  </si>
+  <si>
+    <t>Problem with ECG data</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>59</v>
@@ -1036,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>59</v>
@@ -1080,7 +1083,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>59</v>
